--- a/data/trans_media/dukeAFECT-Edad-trans_media.xlsx
+++ b/data/trans_media/dukeAFECT-Edad-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,23; 89,85</t>
+          <t>87,24; 89,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,79; 90,31</t>
+          <t>87,77; 90,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,6; 87,25</t>
+          <t>84,52; 87,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>91,03; 94,43</t>
+          <t>90,84; 94,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,89; 88,0</t>
+          <t>84,93; 87,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,51; 89,99</t>
+          <t>87,38; 89,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,83; 87,48</t>
+          <t>84,74; 87,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,26; 91,23</t>
+          <t>86,04; 91,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,5; 88,48</t>
+          <t>86,48; 88,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87,86; 89,79</t>
+          <t>87,97; 89,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>85,03; 87,0</t>
+          <t>85,07; 87,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>89,41; 92,44</t>
+          <t>89,15; 92,32</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,76; 88,17</t>
+          <t>85,71; 88,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,18; 89,36</t>
+          <t>87,23; 89,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,53; 84,98</t>
+          <t>82,45; 84,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,0; 88,88</t>
+          <t>84,9; 88,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,33; 87,17</t>
+          <t>84,19; 87,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,84; 87,39</t>
+          <t>85,05; 87,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,3; 85,65</t>
+          <t>83,15; 85,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,54; 89,96</t>
+          <t>86,57; 89,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>85,56; 87,4</t>
+          <t>85,52; 87,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>86,52; 88,17</t>
+          <t>86,52; 88,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>83,26; 84,9</t>
+          <t>83,24; 84,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,32; 88,93</t>
+          <t>86,43; 88,92</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,47; 85,72</t>
+          <t>82,45; 85,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,51; 87,04</t>
+          <t>84,41; 86,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,71; 85,08</t>
+          <t>82,68; 85,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,61; 86,95</t>
+          <t>83,7; 86,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,99; 85,63</t>
+          <t>82,93; 85,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>84,56; 87,02</t>
+          <t>84,46; 87,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>83,13; 85,44</t>
+          <t>83,03; 85,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,81; 88,03</t>
+          <t>85,93; 88,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,24; 85,28</t>
+          <t>83,24; 85,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>84,91; 86,71</t>
+          <t>84,91; 86,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>83,26; 84,91</t>
+          <t>83,34; 84,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>85,21; 87,14</t>
+          <t>85,24; 87,18</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,67; 85,93</t>
+          <t>82,67; 85,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,83; 86,77</t>
+          <t>83,8; 86,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,64; 81,68</t>
+          <t>78,66; 81,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,4; 88,46</t>
+          <t>83,55; 88,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,96; 83,38</t>
+          <t>79,58; 83,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,7; 84,67</t>
+          <t>81,85; 84,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,02; 81,83</t>
+          <t>78,97; 81,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,51; 85,81</t>
+          <t>83,57; 85,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,75; 84,21</t>
+          <t>81,67; 84,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83,22; 85,25</t>
+          <t>83,13; 85,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79,44; 81,39</t>
+          <t>79,37; 81,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,99; 86,81</t>
+          <t>83,92; 86,69</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80,95; 84,81</t>
+          <t>80,76; 85,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>84,93; 88,06</t>
+          <t>85,0; 88,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,77; 83,02</t>
+          <t>79,82; 83,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,7; 83,03</t>
+          <t>79,69; 83,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,82; 81,0</t>
+          <t>76,85; 81,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,76; 84,31</t>
+          <t>80,84; 84,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>76,53; 80,19</t>
+          <t>76,67; 80,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>79,47; 82,14</t>
+          <t>79,38; 82,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,52; 82,3</t>
+          <t>79,35; 82,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>83,36; 85,77</t>
+          <t>83,33; 85,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>78,55; 81,13</t>
+          <t>78,8; 81,27</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>80,14; 82,26</t>
+          <t>80,06; 82,13</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,38; 81,19</t>
+          <t>77,42; 81,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>81,17; 84,19</t>
+          <t>80,99; 84,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79,1; 81,99</t>
+          <t>79,14; 81,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,13; 81,95</t>
+          <t>79,11; 81,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>74,92; 78,67</t>
+          <t>75,04; 78,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>81,05; 83,62</t>
+          <t>81,14; 83,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>75,3; 78,36</t>
+          <t>75,28; 78,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>74,78; 79,06</t>
+          <t>74,76; 79,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>76,62; 79,2</t>
+          <t>76,55; 79,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>81,43; 83,49</t>
+          <t>81,37; 83,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>77,34; 79,46</t>
+          <t>77,42; 79,52</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>76,66; 79,67</t>
+          <t>76,75; 79,8</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>84,05; 85,29</t>
+          <t>84,0; 85,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,72; 86,82</t>
+          <t>85,73; 86,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>81,94; 83,06</t>
+          <t>81,98; 83,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,06; 85,72</t>
+          <t>83,96; 85,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,65; 83,08</t>
+          <t>81,7; 83,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>84,1; 85,23</t>
+          <t>84,08; 85,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>80,79; 81,99</t>
+          <t>80,79; 81,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>81,65; 84,07</t>
+          <t>81,9; 84,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>83,01; 83,98</t>
+          <t>83,04; 84,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>85,09; 85,87</t>
+          <t>85,05; 85,87</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>81,5; 82,32</t>
+          <t>81,5; 82,33</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>83,26; 84,59</t>
+          <t>83,18; 84,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/dukeAFECT-Edad-trans_media.xlsx
+++ b/data/trans_media/dukeAFECT-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,24; 89,95</t>
+          <t>87,32; 89,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,77; 90,39</t>
+          <t>87,74; 90,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,52; 87,32</t>
+          <t>84,57; 87,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,93; 87,92</t>
+          <t>84,89; 87,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,38; 89,98</t>
+          <t>87,32; 90,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,74; 87,54</t>
+          <t>84,8; 87,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,48; 88,53</t>
+          <t>86,53; 88,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87,97; 89,83</t>
+          <t>87,98; 89,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>85,07; 87,03</t>
+          <t>85,08; 86,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,71; 88,2</t>
+          <t>85,81; 88,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,23; 89,44</t>
+          <t>87,2; 89,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,45; 84,76</t>
+          <t>82,47; 84,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,19; 87,18</t>
+          <t>84,44; 87,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,05; 87,44</t>
+          <t>84,93; 87,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,15; 85,55</t>
+          <t>83,16; 85,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>85,52; 87,51</t>
+          <t>85,52; 87,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>86,52; 88,18</t>
+          <t>86,5; 88,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>83,24; 84,86</t>
+          <t>83,22; 84,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,45; 85,69</t>
+          <t>82,42; 85,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,41; 86,99</t>
+          <t>84,39; 87,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,68; 85,2</t>
+          <t>82,75; 85,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,93; 85,86</t>
+          <t>83,03; 85,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>84,46; 87,12</t>
+          <t>84,63; 86,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>83,03; 85,41</t>
+          <t>83,02; 85,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,24; 85,26</t>
+          <t>83,29; 85,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>84,91; 86,67</t>
+          <t>84,96; 86,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>83,34; 84,94</t>
+          <t>83,3; 84,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,67; 85,94</t>
+          <t>82,65; 85,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,8; 86,62</t>
+          <t>83,94; 86,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,66; 81,75</t>
+          <t>78,64; 81,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,58; 83,33</t>
+          <t>79,72; 83,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,85; 84,73</t>
+          <t>81,62; 84,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,97; 81,8</t>
+          <t>79,05; 81,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,67; 84,03</t>
+          <t>81,8; 84,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83,13; 85,17</t>
+          <t>83,1; 85,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79,37; 81,38</t>
+          <t>79,3; 81,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80,76; 85,03</t>
+          <t>80,79; 84,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,0; 88,19</t>
+          <t>84,84; 87,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,82; 83,06</t>
+          <t>79,59; 83,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,85; 81,15</t>
+          <t>76,79; 81,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,84; 84,35</t>
+          <t>80,95; 84,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>76,67; 80,34</t>
+          <t>76,83; 80,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,35; 82,31</t>
+          <t>79,45; 82,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>83,33; 85,69</t>
+          <t>83,35; 85,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>78,8; 81,27</t>
+          <t>78,67; 81,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,42; 81,16</t>
+          <t>77,65; 81,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>80,99; 84,31</t>
+          <t>81,27; 84,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79,14; 81,91</t>
+          <t>79,17; 81,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>75,04; 78,78</t>
+          <t>74,82; 78,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>81,14; 83,77</t>
+          <t>81,04; 83,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>75,28; 78,35</t>
+          <t>75,38; 78,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>76,55; 79,31</t>
+          <t>76,63; 79,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>81,37; 83,55</t>
+          <t>81,51; 83,62</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>77,42; 79,52</t>
+          <t>77,35; 79,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>84,0; 85,33</t>
+          <t>84,02; 85,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,73; 86,85</t>
+          <t>85,65; 86,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>81,98; 83,07</t>
+          <t>81,95; 83,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,7; 83,09</t>
+          <t>81,67; 83,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>84,08; 85,29</t>
+          <t>84,02; 85,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>80,79; 81,94</t>
+          <t>80,73; 81,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>83,04; 84,02</t>
+          <t>83,01; 83,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>85,05; 85,87</t>
+          <t>85,04; 85,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>81,5; 82,33</t>
+          <t>81,53; 82,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
